--- a/output/excel/1 全局表.xlsx
+++ b/output/excel/1 全局表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="25600" windowHeight="10870"/>
   </bookViews>
   <sheets>
     <sheet name="t_global" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>cs</t>
   </si>
@@ -31,9 +31,15 @@
     <t>t_string_param</t>
   </si>
   <si>
+    <t>t_array_param</t>
+  </si>
+  <si>
     <t>text</t>
   </si>
   <si>
+    <t>int[];</t>
+  </si>
+  <si>
     <t>全局表</t>
   </si>
   <si>
@@ -46,7 +52,7 @@
     <t>字符串</t>
   </si>
   <si>
-    <t>说明</t>
+    <t>1;2;3;4;5;5;5</t>
   </si>
   <si>
     <t>-1+20000;-2+150</t>
@@ -75,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -105,6 +111,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -112,75 +139,123 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,75 +266,6 @@
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -300,31 +306,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,19 +468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,127 +486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,32 +515,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -546,6 +526,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,6 +563,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -583,21 +593,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -606,158 +601,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1244,26 +1250,25 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="$A21:$XFD465"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="15.375" style="6" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="6" customWidth="1"/>
-    <col min="3" max="3" width="49.25" style="6" customWidth="1"/>
-    <col min="4" max="4" width="55.25" style="6" customWidth="1"/>
+    <col min="3" max="4" width="49.25" style="6" customWidth="1"/>
     <col min="5" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:1">
+    <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:4">
+    <row r="2" s="2" customFormat="1" spans="1:4">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1273,72 +1278,96 @@
       <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="16.5" spans="1:4">
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:4">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="16.5" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:4">
       <c r="A4" s="10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" s="5" customFormat="1" ht="15" spans="1:4">
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" s="5" customFormat="1" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="6">
         <v>1010001</v>
       </c>
       <c r="B6" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="6">
         <v>1020001</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="6">
         <v>1020002</v>
       </c>
       <c r="B9" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="6">
         <v>1020003</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="6">
         <v>1020004</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1379,7 +1408,7 @@
         <v>1020009</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1387,23 +1416,24 @@
         <v>1020010</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="6">
         <v>1020011</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>14</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="6">
         <v>1020012</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1411,7 +1441,7 @@
         <v>1020013</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/output/excel/1 全局表.xlsx
+++ b/output/excel/1 全局表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>cs</t>
   </si>
@@ -34,12 +34,24 @@
     <t>t_array_param</t>
   </si>
   <si>
+    <t>t_enum_Param</t>
+  </si>
+  <si>
+    <t>t_enumArray_Param</t>
+  </si>
+  <si>
     <t>text</t>
   </si>
   <si>
     <t>int[];</t>
   </si>
   <si>
+    <t>SkillTarget</t>
+  </si>
+  <si>
+    <t>SkillTarget[];</t>
+  </si>
+  <si>
     <t>全局表</t>
   </si>
   <si>
@@ -55,10 +67,25 @@
     <t>1;2;3;4;5;5;5</t>
   </si>
   <si>
+    <t>自己</t>
+  </si>
+  <si>
+    <t>敌人;同伴</t>
+  </si>
+  <si>
+    <t>同伴</t>
+  </si>
+  <si>
     <t>-1+20000;-2+150</t>
   </si>
   <si>
+    <t>敌人</t>
+  </si>
+  <si>
     <t>skillcofig_ship</t>
+  </si>
+  <si>
+    <t>敌人;自己</t>
   </si>
   <si>
     <t>[color=#4c9d2f]{0}[/color]</t>
@@ -765,7 +792,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -811,6 +838,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1247,20 +1275,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.375" style="6" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="6" customWidth="1"/>
     <col min="3" max="4" width="49.25" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="7"/>
+    <col min="5" max="6" width="14.1666666666667" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
@@ -1268,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:4">
+    <row r="2" s="2" customFormat="1" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1281,20 +1310,32 @@
       <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:6">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:4">
       <c r="A4" s="10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
@@ -1302,19 +1343,19 @@
     </row>
     <row r="5" s="5" customFormat="1" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="6">
         <v>1010001</v>
       </c>
@@ -1322,26 +1363,44 @@
         <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="4:4">
+        <v>15</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6">
       <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="6">
         <v>1020001</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>12</v>
+      <c r="C8" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="6">
         <v>1020002</v>
       </c>
@@ -1349,26 +1408,41 @@
         <v>5</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="6">
         <v>1020003</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="6">
         <v>1020004</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1379,12 +1453,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:6">
       <c r="A13" s="6">
         <v>1020006</v>
       </c>
       <c r="B13" s="6">
         <v>4</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1395,12 +1475,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:6">
       <c r="A15" s="6">
         <v>1020008</v>
       </c>
       <c r="B15" s="6">
         <v>400</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1408,7 +1494,7 @@
         <v>1020009</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1416,32 +1502,44 @@
         <v>1020010</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="6">
         <v>1020011</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="6">
         <v>1020012</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="6">
         <v>1020013</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/output/excel/1 全局表.xlsx
+++ b/output/excel/1 全局表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>cs</t>
   </si>
@@ -40,6 +40,9 @@
     <t>t_enumArray_Param</t>
   </si>
   <si>
+    <t>t_testclass_Param</t>
+  </si>
+  <si>
     <t>text</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t>SkillTarget[];</t>
   </si>
   <si>
+    <t>TestClass</t>
+  </si>
+  <si>
     <t>全局表</t>
   </si>
   <si>
@@ -73,34 +79,79 @@
     <t>敌人;同伴</t>
   </si>
   <si>
+    <t xml:space="preserve">x:2 y:3 z:4 lan:1000 str:test字符串 </t>
+  </si>
+  <si>
     <t>同伴</t>
   </si>
   <si>
+    <t xml:space="preserve">x:2 y:3 z:5 lan:1001 str:test字符串 </t>
+  </si>
+  <si>
     <t>-1+20000;-2+150</t>
   </si>
   <si>
     <t>敌人</t>
   </si>
   <si>
+    <t xml:space="preserve">x:2 y:3 z:4 lan:1002 str:test字符串 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">x:2 y:3 z:6 lan:1003 str:test字符串 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">x:2 y:3 z:4 lan:1004 str:test字符串 </t>
+  </si>
+  <si>
     <t>skillcofig_ship</t>
   </si>
   <si>
     <t>敌人;自己</t>
   </si>
   <si>
+    <t>x:2 y:3 z:4 lan:1005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x:2 y:3 z:4 lan:1006 str:test字符串 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">x:2 y:3 z:4 lan:1007 str:test字符串 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">x:2 y:3 z:4 lan:1008 str:test字符串 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">x:2 y:3 z:4 lan:1009 str:test字符串 </t>
+  </si>
+  <si>
     <t>[color=#4c9d2f]{0}[/color]</t>
   </si>
   <si>
+    <t xml:space="preserve">x:2 y:3 z:4 lan:1010 str:test字符串 </t>
+  </si>
+  <si>
     <t>[color=#0092dd]{0}[/color]</t>
   </si>
   <si>
+    <t xml:space="preserve">x:2 y:3 z:4 lan:1011 str:test字符串 </t>
+  </si>
+  <si>
     <t>[color=#ab48bf]{0}[/color]</t>
   </si>
   <si>
+    <t xml:space="preserve">x:2 y:3 z:4 lan:1012 str:test字符串 </t>
+  </si>
+  <si>
     <t>[color=#ff7750]{0}[/color]</t>
   </si>
   <si>
+    <t xml:space="preserve">x:2 y:3 z:4 lan:1013 str:test字符串 </t>
+  </si>
+  <si>
     <t>[color=#d32939]{0}[/color]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x:2 y:3 z:4 lan:1014 str:test字符串 </t>
   </si>
 </sst>
 </file>
@@ -1275,21 +1326,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.375" style="6" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="6" customWidth="1"/>
-    <col min="3" max="4" width="49.25" style="6" customWidth="1"/>
-    <col min="5" max="6" width="14.1666666666667" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="7"/>
+    <col min="3" max="3" width="49.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="29.4166666666667" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.6666666666667" style="7" customWidth="1"/>
+    <col min="6" max="6" width="24.3333333333333" style="7" customWidth="1"/>
+    <col min="7" max="7" width="17.6666666666667" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
@@ -1297,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:6">
+    <row r="2" s="2" customFormat="1" spans="1:7">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1316,26 +1370,32 @@
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:7">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:4">
       <c r="A4" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
@@ -1343,19 +1403,19 @@
     </row>
     <row r="5" s="5" customFormat="1" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="6">
         <v>1010001</v>
       </c>
@@ -1363,44 +1423,53 @@
         <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7">
+      <c r="D7" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="4:6">
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="E7" s="15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="6">
         <v>1020001</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="6">
         <v>1020002</v>
       </c>
@@ -1408,52 +1477,64 @@
         <v>5</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>19</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="6">
         <v>1020003</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>24</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="6">
         <v>1020004</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>29</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="6">
         <v>1020005</v>
       </c>
       <c r="B12" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="6">
         <v>1020006</v>
       </c>
@@ -1461,21 +1542,27 @@
         <v>4</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>24</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="6">
         <v>1020007</v>
       </c>
       <c r="B14" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="6">
         <v>1020008</v>
       </c>
@@ -1483,63 +1570,81 @@
         <v>400</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="6">
         <v>1020009</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>35</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="6">
         <v>1020010</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="6">
         <v>1020011</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="6">
         <v>1020012</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>41</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="6">
         <v>1020013</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/output/excel/1 全局表.xlsx
+++ b/output/excel/1 全局表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>cs</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>字符串</t>
+  </si>
+  <si>
+    <t>字符串测试</t>
   </si>
   <si>
     <t>1;2;3;4;5;5;5</t>
@@ -1331,7 +1334,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1422,31 +1425,34 @@
       <c r="B6" s="6">
         <v>4</v>
       </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="D6" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="4:7">
       <c r="D7" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1454,19 +1460,19 @@
         <v>1020001</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1477,16 +1483,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1494,16 +1500,16 @@
         <v>1020003</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1511,16 +1517,16 @@
         <v>1020004</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1531,7 +1537,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1542,13 +1548,13 @@
         <v>4</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1559,7 +1565,7 @@
         <v>5</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1570,13 +1576,13 @@
         <v>400</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1584,10 +1590,10 @@
         <v>1020009</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1595,10 +1601,10 @@
         <v>1020010</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1606,17 +1612,17 @@
         <v>1020011</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1624,10 +1630,10 @@
         <v>1020012</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1635,16 +1641,16 @@
         <v>1020013</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/output/excel/1 全局表.xlsx
+++ b/output/excel/1 全局表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10870"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="t_global" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,9 @@
     <t>t_testclass_Param</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>text</t>
   </si>
   <si>
@@ -62,9 +65,6 @@
   </si>
   <si>
     <t>Id</t>
-  </si>
-  <si>
-    <t>整形</t>
   </si>
   <si>
     <t>字符串</t>
@@ -846,7 +846,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -878,9 +878,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1334,13 +1331,12 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="6" customWidth="1"/>
+    <col min="1" max="2" width="15.375" style="6" customWidth="1"/>
     <col min="3" max="3" width="49.25" style="6" customWidth="1"/>
     <col min="4" max="4" width="29.4166666666667" style="6" customWidth="1"/>
     <col min="5" max="5" width="17.6666666666667" style="7" customWidth="1"/>
@@ -1354,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:7">
+    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:7">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1377,138 +1373,132 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:7">
+    <row r="3" s="3" customFormat="1" ht="16.5" spans="1:7">
       <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:4">
       <c r="A4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" s="5" customFormat="1" spans="1:4">
-      <c r="A5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" ht="16.5" spans="1:7">
       <c r="A6" s="6">
         <v>1010001</v>
       </c>
-      <c r="B6" s="6">
-        <v>4</v>
-      </c>
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="4:7">
+    <row r="7" ht="16.5" spans="4:7">
       <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" ht="16.5" spans="1:7">
       <c r="A8" s="6">
         <v>1020001</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" ht="16.5" spans="1:7">
       <c r="A9" s="6">
         <v>1020002</v>
       </c>
-      <c r="B9" s="6">
-        <v>5</v>
-      </c>
       <c r="D9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" ht="16.5" spans="1:7">
       <c r="A10" s="6">
         <v>1020003</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1522,10 +1512,10 @@
       <c r="D11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1533,27 +1523,21 @@
       <c r="A12" s="6">
         <v>1020005</v>
       </c>
-      <c r="B12" s="6">
-        <v>3</v>
-      </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" ht="16.5" spans="1:7">
       <c r="A13" s="6">
         <v>1020006</v>
       </c>
-      <c r="B13" s="6">
-        <v>4</v>
-      </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1561,27 +1545,21 @@
       <c r="A14" s="6">
         <v>1020007</v>
       </c>
-      <c r="B14" s="6">
-        <v>5</v>
-      </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" ht="16.5" spans="1:7">
       <c r="A15" s="6">
         <v>1020008</v>
       </c>
-      <c r="B15" s="6">
-        <v>400</v>
-      </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="14" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1592,7 +1570,7 @@
       <c r="C16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="14" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1603,25 +1581,25 @@
       <c r="C17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" ht="16.5" spans="1:7">
       <c r="A18" s="6">
         <v>1020011</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="15" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1632,29 +1610,29 @@
       <c r="C19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" ht="16.5" spans="1:7">
       <c r="A20" s="6">
         <v>1020013</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="14" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A5">
+  <conditionalFormatting sqref="A1:B5">
     <cfRule type="duplicateValues" dxfId="0" priority="134"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
